--- a/output/fit_clients/fit_round_239.xlsx
+++ b/output/fit_clients/fit_round_239.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2127269266.248558</v>
+        <v>2289606173.81176</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08812615991232677</v>
+        <v>0.08808700220699094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03794667337590089</v>
+        <v>0.04275025159345584</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1063634645.851792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2608371049.36827</v>
+        <v>2475771330.386246</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1530447357040091</v>
+        <v>0.1527798553022892</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0369752479842634</v>
+        <v>0.04253273199885967</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1304185658.950452</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3955674417.673198</v>
+        <v>5146054246.362038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1299483055196568</v>
+        <v>0.1491865639372</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02740756576630652</v>
+        <v>0.03741599983220571</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>87</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1977837219.860117</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2618255779.204835</v>
+        <v>3510176894.273979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08619710678654173</v>
+        <v>0.09353955148679657</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03260118169987189</v>
+        <v>0.03102971832366066</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1309127984.731223</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2215148964.253129</v>
+        <v>1805578368.260886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1290017418069639</v>
+        <v>0.09700448825265978</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04797180139356109</v>
+        <v>0.03424809397846058</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1107574488.427318</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2571456663.553617</v>
+        <v>2143544748.133901</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08264966120838071</v>
+        <v>0.07139801376240393</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04850220382617965</v>
+        <v>0.04333335773116316</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1285728337.920444</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3080076723.379961</v>
+        <v>2411585885.284602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1575610327717746</v>
+        <v>0.1472353028864646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02712389169660558</v>
+        <v>0.02643442534535147</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1540038427.379488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2015121912.820713</v>
+        <v>2098301069.939494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1328571222845084</v>
+        <v>0.1691522249407871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02797226653909414</v>
+        <v>0.03717176526229837</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1007560980.914724</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4195494724.148221</v>
+        <v>4096092309.933091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2057195757596859</v>
+        <v>0.1377991237160376</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0465087024322387</v>
+        <v>0.04045930601651604</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2097747399.115211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3599087779.385058</v>
+        <v>2721150859.445569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1187795761209041</v>
+        <v>0.1202789525385208</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04435424880232933</v>
+        <v>0.03718189821273399</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>99</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1799543874.374489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2465100664.736513</v>
+        <v>2358820847.944705</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1321093443696621</v>
+        <v>0.1555221702440399</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04504453366357933</v>
+        <v>0.04946999489258574</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1232550301.406295</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5339522734.6946</v>
+        <v>3325278402.516469</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07102537625865915</v>
+        <v>0.0895133187247036</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02866510246204146</v>
+        <v>0.02723490967214348</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>81</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2669761354.231024</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3523987167.417121</v>
+        <v>3238448738.584075</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1482851540803251</v>
+        <v>0.1400304491816689</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03659721084034379</v>
+        <v>0.0439734659697306</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1761993580.198421</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1780043664.001983</v>
+        <v>1180659898.818623</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08307154800212692</v>
+        <v>0.08133854429350136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03186132403012024</v>
+        <v>0.04046719705247392</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>890021980.9850378</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2565406281.758111</v>
+        <v>1982115942.849337</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09742679465003581</v>
+        <v>0.08367468342272957</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04730387768957312</v>
+        <v>0.03272506593410838</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1282703165.852113</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4282799784.103085</v>
+        <v>4273787085.067318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1429931828989538</v>
+        <v>0.1712277337865434</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04054635751110127</v>
+        <v>0.04686433175447927</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>70</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2141399912.684604</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2873807426.95743</v>
+        <v>3607421201.269112</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1240766976200219</v>
+        <v>0.1221427577713686</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03237635195305271</v>
+        <v>0.02602527602713788</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1436903752.865947</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>829369153.8188134</v>
+        <v>1055972582.333608</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1775728647971342</v>
+        <v>0.1634466773534081</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02197840427538481</v>
+        <v>0.02111719871127708</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>414684564.5926859</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1866551409.955369</v>
+        <v>1773786697.521177</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1005245279582354</v>
+        <v>0.1052946410646444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0238398837237197</v>
+        <v>0.02723200164887683</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>933275745.5385096</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2331459083.977089</v>
+        <v>2153743415.028453</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09227481233140816</v>
+        <v>0.08441976982056858</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03301420983944396</v>
+        <v>0.03791108996248232</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1165729546.225626</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2701513660.448152</v>
+        <v>3145388390.567876</v>
       </c>
       <c r="F22" t="n">
-        <v>0.143622339749624</v>
+        <v>0.119269388557835</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04090770084193738</v>
+        <v>0.03986037615537051</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1350756909.618475</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1081076790.193645</v>
+        <v>1425108360.933103</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1499024554630934</v>
+        <v>0.1265954383538827</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03519873062306195</v>
+        <v>0.03632691387574682</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>540538451.6053727</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3480673637.328068</v>
+        <v>3681847118.558119</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1281754622080453</v>
+        <v>0.1502045127422131</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03052383556426151</v>
+        <v>0.03384276238375119</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>70</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1740336821.565008</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1040208598.236345</v>
+        <v>1458893874.934456</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1159192615464033</v>
+        <v>0.08936078136250948</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0298328062710066</v>
+        <v>0.02332642083678008</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>520104353.8371832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>926251035.91465</v>
+        <v>1179765731.042444</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09010449739819303</v>
+        <v>0.1095008287169157</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03291887104942864</v>
+        <v>0.03027887519460304</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>463125471.9829919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4480408085.803483</v>
+        <v>4417613313.914631</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1512978191106018</v>
+        <v>0.1439643765067609</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02451802431539831</v>
+        <v>0.02187398921485696</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2240204029.204752</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2832594413.050969</v>
+        <v>2934026540.050633</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1227508391492653</v>
+        <v>0.132413040924933</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04906149807455878</v>
+        <v>0.0391798618697286</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>78</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1416297203.210828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4251375827.276285</v>
+        <v>5808213205.653427</v>
       </c>
       <c r="F29" t="n">
-        <v>0.112176919016932</v>
+        <v>0.09360722899239379</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03393803631744217</v>
+        <v>0.03361977209741631</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>106</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2125687913.041449</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2386016931.877542</v>
+        <v>2409204052.86402</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1260956858407949</v>
+        <v>0.1399563973872562</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02819011687732082</v>
+        <v>0.03619337255474041</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1193008547.351465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1080026546.799802</v>
+        <v>1266816512.192023</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09682860342782038</v>
+        <v>0.06974264055182407</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04522121038576511</v>
+        <v>0.03546761316033456</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>540013253.099287</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1614059098.329077</v>
+        <v>1534972058.373426</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09031458809626776</v>
+        <v>0.1064581681506002</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02572957161503389</v>
+        <v>0.02422938758218172</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>807029641.1440344</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2737740349.045569</v>
+        <v>3076713480.218605</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1821884134257708</v>
+        <v>0.1595938942167573</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0489988472497347</v>
+        <v>0.04090024553838451</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>72</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1368870192.466624</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1496218393.361616</v>
+        <v>1085505229.605039</v>
       </c>
       <c r="F34" t="n">
-        <v>0.095250886252001</v>
+        <v>0.07440825527509412</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01833884934358497</v>
+        <v>0.02153615124924722</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>748109153.1172038</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1297305056.132428</v>
+        <v>950976566.0007809</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09650167536065499</v>
+        <v>0.07390492691524138</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03837744962133188</v>
+        <v>0.03221478769390304</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>648652481.4430609</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2380384549.638749</v>
+        <v>2908483092.907971</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1626130573402415</v>
+        <v>0.1424795475103305</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01899255173658735</v>
+        <v>0.0191974785787058</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1190192306.367753</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2236952965.915274</v>
+        <v>2600315603.968707</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0781149487296191</v>
+        <v>0.08677133115256097</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03652456769508634</v>
+        <v>0.02745496749088656</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>62</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1118476542.831032</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1985858767.175221</v>
+        <v>1710684816.748076</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09485989618815133</v>
+        <v>0.1000403674742835</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03335477212343502</v>
+        <v>0.0268887215050348</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>992929364.2016174</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1895338312.530468</v>
+        <v>1554266578.02406</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1250679929801549</v>
+        <v>0.1366447193368468</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03110620470037664</v>
+        <v>0.02234052820668149</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>947669166.7064867</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1745473023.723308</v>
+        <v>1584557777.270237</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1175069998765539</v>
+        <v>0.1336850435530617</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05018287199084662</v>
+        <v>0.03974699755623773</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>872736416.6006695</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2721262515.753822</v>
+        <v>1766330381.014876</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1168344943425758</v>
+        <v>0.1230932479414702</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04186058285849248</v>
+        <v>0.04606186605272077</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>57</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1360631261.462873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2877136219.761767</v>
+        <v>2827043219.423083</v>
       </c>
       <c r="F42" t="n">
-        <v>0.117062453523815</v>
+        <v>0.1096316928081908</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03575680061629986</v>
+        <v>0.03578827738008501</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1438568061.856595</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2093117585.316772</v>
+        <v>2566807036.763948</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1373000326464508</v>
+        <v>0.1521088548649224</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02583765316796555</v>
+        <v>0.01916048439176957</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>83</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1046558882.23386</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1781467103.809764</v>
+        <v>1861417457.464117</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08373680116080685</v>
+        <v>0.09134979719815112</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03178511812850673</v>
+        <v>0.03527700600210113</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>890733614.6294199</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2289210109.290966</v>
+        <v>2524937447.129833</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1568803672568216</v>
+        <v>0.16545291117501</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03681726897416104</v>
+        <v>0.0458569908288129</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1144605074.65089</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4146476076.856998</v>
+        <v>3508742925.451163</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1449270552965713</v>
+        <v>0.1218248814410427</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04137718739564387</v>
+        <v>0.04990364099609111</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>85</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2073238016.336773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4519660706.15873</v>
+        <v>4486352005.26351</v>
       </c>
       <c r="F47" t="n">
-        <v>0.152108975063136</v>
+        <v>0.156733506092802</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0492358513539469</v>
+        <v>0.05002843332933169</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>64</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2259830381.682439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2905479092.740345</v>
+        <v>3362039608.999474</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06835186713547071</v>
+        <v>0.09866397612104272</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02474431911123643</v>
+        <v>0.02635020254063208</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1452739644.331216</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1747578089.253401</v>
+        <v>1751705339.375215</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1184694387074365</v>
+        <v>0.1698845503363762</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03599893276097635</v>
+        <v>0.03311439612653917</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>873789038.1565005</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3709323683.083452</v>
+        <v>2861329798.734579</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1430020156933998</v>
+        <v>0.1317742132896773</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04397357081234579</v>
+        <v>0.04384320541544347</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>81</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1854661850.891465</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>941115945.0402018</v>
+        <v>1076828672.752562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.169408083047638</v>
+        <v>0.1958134811223153</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03534572530684391</v>
+        <v>0.04422714194593835</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>470558066.0229824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4824619842.805167</v>
+        <v>5054181084.467164</v>
       </c>
       <c r="F52" t="n">
-        <v>0.122333224989169</v>
+        <v>0.09829793688901817</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05469882527536941</v>
+        <v>0.03792252165721479</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>99</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2412309929.334032</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2467588163.435527</v>
+        <v>2815957448.469367</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1930781664158723</v>
+        <v>0.1343337727639621</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03260504888630392</v>
+        <v>0.02936525610986108</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1233794150.924987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4516643306.271161</v>
+        <v>3389938619.830294</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1161702356427931</v>
+        <v>0.1155553444617732</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03839806174822266</v>
+        <v>0.03707486626534635</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>78</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2258321757.776831</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3771124856.892182</v>
+        <v>4370724061.450495</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1614346443805222</v>
+        <v>0.1901960722625266</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02685770114817514</v>
+        <v>0.03127298208525334</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>66</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1885562393.225835</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1380233535.387495</v>
+        <v>1262118188.275896</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1502948996596645</v>
+        <v>0.1118876213481659</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04129352140548082</v>
+        <v>0.0548733453636904</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>690116827.6982894</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4196890187.270921</v>
+        <v>3308147128.015609</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1276859837955014</v>
+        <v>0.1680112361022867</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02334586144543441</v>
+        <v>0.02493501740939564</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>76</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2098445198.51923</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1767219814.82159</v>
+        <v>1518131197.469721</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1787998898063304</v>
+        <v>0.1542136368234243</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02731616227058502</v>
+        <v>0.02505292222705215</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>883609914.1442423</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4249988611.992679</v>
+        <v>4369292917.737169</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1218727990489096</v>
+        <v>0.1026120846737368</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04273067192284902</v>
+        <v>0.04875171856693387</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>66</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2124994269.858987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2710625709.553867</v>
+        <v>2737722834.263223</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1801268541694976</v>
+        <v>0.1395531202787326</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02504412419474314</v>
+        <v>0.02952425900335632</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1355312894.763198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2657583609.697225</v>
+        <v>3095766875.177408</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1519076539119339</v>
+        <v>0.1783881722822705</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02795124358763103</v>
+        <v>0.02718999592324907</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>82</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1328791817.599636</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2040213228.61292</v>
+        <v>1754342657.611047</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1710340035162156</v>
+        <v>0.1496886243583598</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03312469205430447</v>
+        <v>0.03544843515502156</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1020106678.367873</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4741016573.316268</v>
+        <v>3598533732.315781</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09526240443961854</v>
+        <v>0.08330454534289777</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04716886792184047</v>
+        <v>0.03849247779044394</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>68</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2370508315.984416</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5325119296.886705</v>
+        <v>4445707450.829438</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228839739662396</v>
+        <v>0.1721894338754865</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03468590519104744</v>
+        <v>0.02832410504155692</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2662559777.490529</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4289249619.27685</v>
+        <v>3788745352.535161</v>
       </c>
       <c r="F65" t="n">
-        <v>0.146665889484092</v>
+        <v>0.1248195520765598</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03006269131834027</v>
+        <v>0.02869662848851421</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>86</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2144624810.937169</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5457932872.940949</v>
+        <v>4449029060.585475</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1480264598097499</v>
+        <v>0.1133063401031052</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0382405314506598</v>
+        <v>0.04014722419600984</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>70</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2728966488.160594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3136931837.78321</v>
+        <v>3442086365.780604</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0857688025129353</v>
+        <v>0.09050265840662315</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03316260103403858</v>
+        <v>0.03565832172465416</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1568465925.521499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5113446796.864002</v>
+        <v>3951366573.532514</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1390549660198622</v>
+        <v>0.1260493239742677</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03736022931025421</v>
+        <v>0.03346699523655025</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2556723461.68556</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1680901959.790035</v>
+        <v>1879121201.334934</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1170671394401421</v>
+        <v>0.1791717530512775</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04839151974261441</v>
+        <v>0.0374627645036209</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>840450943.5677476</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3430242675.335814</v>
+        <v>2899401307.716402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07624984788948286</v>
+        <v>0.0684967826587104</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03700159140345001</v>
+        <v>0.03722935526432421</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>67</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1715121342.717467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4479808444.833331</v>
+        <v>5422890185.422688</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1845126943276369</v>
+        <v>0.1701105805229674</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02973624807716728</v>
+        <v>0.02270138662811716</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>87</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2239904289.311021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1839782815.221576</v>
+        <v>2278061899.51451</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09013565014269208</v>
+        <v>0.07608439233415902</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03923490134103441</v>
+        <v>0.04708953822052816</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>919891379.7965151</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2977282787.578667</v>
+        <v>3057072740.124882</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07964920323075395</v>
+        <v>0.09936237102109576</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03405168503617855</v>
+        <v>0.03928051806914652</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1488641391.824928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3888052505.888382</v>
+        <v>3110411063.282591</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1429570743456145</v>
+        <v>0.1505175619277682</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03474739327825604</v>
+        <v>0.0322183654974362</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>82</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1944026241.556852</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2013667221.828528</v>
+        <v>1821576018.191776</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1065030601844444</v>
+        <v>0.1554407841923772</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03498616822516828</v>
+        <v>0.03491087242960396</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1006833573.758679</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4190920044.99298</v>
+        <v>5136758441.226639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08634883958079692</v>
+        <v>0.122731352839048</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03091549667582228</v>
+        <v>0.02533441572297105</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>55</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2095460015.234281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1937091902.058319</v>
+        <v>1859592798.062827</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1718971543818373</v>
+        <v>0.1704807977052784</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02071741269582417</v>
+        <v>0.0243042575533677</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>968546003.2276732</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4634087868.368941</v>
+        <v>3965682688.277054</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1170850180082396</v>
+        <v>0.08877426091177251</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04758361137496672</v>
+        <v>0.0445051396812482</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>83</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2317043854.543041</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1713638731.802441</v>
+        <v>1811834464.799252</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1692995447454805</v>
+        <v>0.1344278026022097</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03562122986530128</v>
+        <v>0.03403269377727559</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>856819437.4330096</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3534485378.525604</v>
+        <v>4834488778.304658</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06876045144472738</v>
+        <v>0.06813051322872569</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02860802203979603</v>
+        <v>0.03166182692653036</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>50</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1767242665.564315</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3855187674.53406</v>
+        <v>5183185150.216079</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1346292954226198</v>
+        <v>0.08808282003674539</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03265045772767344</v>
+        <v>0.02358638044513589</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1927593795.106597</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5572880718.807335</v>
+        <v>4883278403.441045</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1586356274613617</v>
+        <v>0.1378316089781993</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01787779925313497</v>
+        <v>0.02916281058167017</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2786440311.367929</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1785734214.239065</v>
+        <v>2119023983.950744</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09878431326239365</v>
+        <v>0.1554607523510843</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03515497115136922</v>
+        <v>0.03221375950389251</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>892867065.7126758</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1929418467.928233</v>
+        <v>1668324349.848731</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1106589251942112</v>
+        <v>0.0987838053420198</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03972439055142653</v>
+        <v>0.04275366405157696</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>964709249.3352219</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3468691748.716312</v>
+        <v>3641342980.538859</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1140272624681718</v>
+        <v>0.1663098403481293</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03919025965325964</v>
+        <v>0.04031628723402422</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>90</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1734345986.242886</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1726091953.842163</v>
+        <v>2355192189.053741</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1280809592841395</v>
+        <v>0.1708144449916221</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0174124201467891</v>
+        <v>0.02553946206014729</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>31</v>
-      </c>
-      <c r="J86" t="n">
-        <v>863045966.4504627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>952714952.1431164</v>
+        <v>977032520.3543674</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1547713339053336</v>
+        <v>0.1332925254650093</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04360350056493698</v>
+        <v>0.03234209122086357</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>476357468.2612634</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3302972248.528984</v>
+        <v>3696650707.790153</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1718329970622561</v>
+        <v>0.1110182028126262</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03895728402082567</v>
+        <v>0.03172374077286172</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>95</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1651486184.652794</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2476774848.308603</v>
+        <v>3195887899.626518</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1467176121893891</v>
+        <v>0.1203587904081271</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03118471898010887</v>
+        <v>0.04064220676674447</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>82</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1238387500.597653</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1611688556.860859</v>
+        <v>1690519875.822012</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1141441403463685</v>
+        <v>0.1351095678775303</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05071793381491819</v>
+        <v>0.04416532622419734</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>805844277.5650777</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1635535929.430202</v>
+        <v>1656408107.002447</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1303136280133818</v>
+        <v>0.1778567246683938</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04119753378441333</v>
+        <v>0.05652690417454586</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>817767985.5719683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2629807163.35193</v>
+        <v>2043040343.859636</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09304736947197856</v>
+        <v>0.1095880211794773</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03423389540671819</v>
+        <v>0.03897443360925709</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>60</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1314903575.430897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3904229761.205539</v>
+        <v>4893190958.326981</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08951580762567551</v>
+        <v>0.1113730622556636</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03571074188504602</v>
+        <v>0.03607098262028618</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1952114887.402413</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2071918105.900835</v>
+        <v>1986668156.876729</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1497969494417759</v>
+        <v>0.1318569168425585</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03294003411101069</v>
+        <v>0.03121186652805606</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1035959060.640088</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2680901797.176581</v>
+        <v>2451711282.278423</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09996452944059708</v>
+        <v>0.125384895087745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04137532153047087</v>
+        <v>0.0490422133070976</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>58</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1340450921.540981</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2285408911.082741</v>
+        <v>1895951375.525764</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1115216390453314</v>
+        <v>0.1208320466354263</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03913525482343848</v>
+        <v>0.04033217556370342</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1142704412.034619</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3621793999.46193</v>
+        <v>5025104204.232235</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1143992298493272</v>
+        <v>0.1224714581536866</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02517308785071264</v>
+        <v>0.0186332683593356</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>77</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1810897025.696596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3134351091.044295</v>
+        <v>3459634261.891214</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1161375084825433</v>
+        <v>0.1245452414457712</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02427779403283263</v>
+        <v>0.02793667739542021</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>63</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1567175539.345141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3173487958.323211</v>
+        <v>2110871977.00313</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1452393106697882</v>
+        <v>0.09159009577365163</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03432005253901452</v>
+        <v>0.02793221223042354</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1586743977.71519</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3647350305.462401</v>
+        <v>3023439226.646037</v>
       </c>
       <c r="F100" t="n">
-        <v>0.123791670812317</v>
+        <v>0.1772483694336068</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01889386201806767</v>
+        <v>0.02502141566702739</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1823675195.229765</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3438849222.9637</v>
+        <v>2289147751.035597</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1526182378226996</v>
+        <v>0.2088484289373174</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0416282502431515</v>
+        <v>0.03574364747151894</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>97</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1719424758.529935</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_239.xlsx
+++ b/output/fit_clients/fit_round_239.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2289606173.81176</v>
+        <v>2191115102.915436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08808700220699094</v>
+        <v>0.07855417297230709</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04275025159345584</v>
+        <v>0.04321446831371262</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2475771330.386246</v>
+        <v>1826032859.281917</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1527798553022892</v>
+        <v>0.1772884904721237</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04253273199885967</v>
+        <v>0.03936944495780816</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5146054246.362038</v>
+        <v>4007791870.845104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1491865639372</v>
+        <v>0.1558565106444967</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03741599983220571</v>
+        <v>0.0234785707292608</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3510176894.273979</v>
+        <v>2775125941.654504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09353955148679657</v>
+        <v>0.1020226250391173</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03102971832366066</v>
+        <v>0.04257519050926097</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1805578368.260886</v>
+        <v>2514548851.907701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09700448825265978</v>
+        <v>0.1373633622238967</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03424809397846058</v>
+        <v>0.04243369483089867</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2143544748.133901</v>
+        <v>2886984554.911131</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07139801376240393</v>
+        <v>0.06439597834753347</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04333335773116316</v>
+        <v>0.04965123746442381</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2411585885.284602</v>
+        <v>3595994547.000234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1472353028864646</v>
+        <v>0.2172303419036951</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02643442534535147</v>
+        <v>0.02776669642208889</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2098301069.939494</v>
+        <v>1710967146.277261</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1691522249407871</v>
+        <v>0.1937074396966069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03717176526229837</v>
+        <v>0.02994935105907287</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4096092309.933091</v>
+        <v>4857518518.478586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1377991237160376</v>
+        <v>0.1452833057943693</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04045930601651604</v>
+        <v>0.0362440212247338</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2721150859.445569</v>
+        <v>4022705917.665278</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1202789525385208</v>
+        <v>0.1842985202058079</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03718189821273399</v>
+        <v>0.0336797546372068</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2358820847.944705</v>
+        <v>2285711094.780926</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1555221702440399</v>
+        <v>0.140279341713875</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04946999489258574</v>
+        <v>0.03861078606012975</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3325278402.516469</v>
+        <v>4392464179.431688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0895133187247036</v>
+        <v>0.07788696160628394</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02723490967214348</v>
+        <v>0.02733332074583689</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3238448738.584075</v>
+        <v>3844908157.35509</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1400304491816689</v>
+        <v>0.1547566508337114</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0439734659697306</v>
+        <v>0.02959081244065216</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1180659898.818623</v>
+        <v>1327596461.995891</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08133854429350136</v>
+        <v>0.08101797406613254</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04046719705247392</v>
+        <v>0.04827521961165882</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1982115942.849337</v>
+        <v>2738993151.001792</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08367468342272957</v>
+        <v>0.1098012844564543</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03272506593410838</v>
+        <v>0.05079507567564584</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4273787085.067318</v>
+        <v>3427816062.711177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1712277337865434</v>
+        <v>0.1487767116048804</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04686433175447927</v>
+        <v>0.03867456545504366</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3607421201.269112</v>
+        <v>3796858137.277827</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1221427577713686</v>
+        <v>0.1811190738369159</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02602527602713788</v>
+        <v>0.02948034817741159</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1055972582.333608</v>
+        <v>907599064.4157329</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1634466773534081</v>
+        <v>0.1649488336867484</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02111719871127708</v>
+        <v>0.02225638975671314</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1773786697.521177</v>
+        <v>1957758564.693031</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1052946410646444</v>
+        <v>0.1402822323353494</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02723200164887683</v>
+        <v>0.02097428907242751</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2153743415.028453</v>
+        <v>1698760583.705362</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08441976982056858</v>
+        <v>0.0749742832466629</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03791108996248232</v>
+        <v>0.04447716590902408</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3145388390.567876</v>
+        <v>3563458024.085937</v>
       </c>
       <c r="F22" t="n">
-        <v>0.119269388557835</v>
+        <v>0.1219722834304665</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03986037615537051</v>
+        <v>0.04464626269228233</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1425108360.933103</v>
+        <v>1419448100.484319</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1265954383538827</v>
+        <v>0.1826255377528395</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03632691387574682</v>
+        <v>0.0511247616386761</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3681847118.558119</v>
+        <v>2983720834.840351</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1502045127422131</v>
+        <v>0.09323808864362053</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03384276238375119</v>
+        <v>0.02945219612748822</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1458893874.934456</v>
+        <v>1410341091.480153</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08936078136250948</v>
+        <v>0.07682420694586391</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02332642083678008</v>
+        <v>0.02634538859544717</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1179765731.042444</v>
+        <v>880674713.4470409</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1095008287169157</v>
+        <v>0.1015398574197491</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03027887519460304</v>
+        <v>0.03465288519254365</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4417613313.914631</v>
+        <v>3736709822.262701</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1439643765067609</v>
+        <v>0.1349760548468551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02187398921485696</v>
+        <v>0.02427148790428072</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2934026540.050633</v>
+        <v>3564284595.671554</v>
       </c>
       <c r="F28" t="n">
-        <v>0.132413040924933</v>
+        <v>0.101170547427031</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0391798618697286</v>
+        <v>0.04083198380330206</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5808213205.653427</v>
+        <v>5129878754.203628</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09360722899239379</v>
+        <v>0.1175542958091762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03361977209741631</v>
+        <v>0.0365040276741582</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2409204052.86402</v>
+        <v>2097438387.474844</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1399563973872562</v>
+        <v>0.1117648484773815</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03619337255474041</v>
+        <v>0.02941971715109377</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1266816512.192023</v>
+        <v>1271786937.285243</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06974264055182407</v>
+        <v>0.08966710947632853</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03546761316033456</v>
+        <v>0.04587183959620137</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1534972058.373426</v>
+        <v>1383680334.570123</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1064581681506002</v>
+        <v>0.09575717283255317</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02422938758218172</v>
+        <v>0.0262421884401249</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3076713480.218605</v>
+        <v>2146504606.460161</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1595938942167573</v>
+        <v>0.1987239533349979</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04090024553838451</v>
+        <v>0.05997209658020808</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1085505229.605039</v>
+        <v>1254702933.657882</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07440825527509412</v>
+        <v>0.1091750162385337</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02153615124924722</v>
+        <v>0.02699169041312391</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>950976566.0007809</v>
+        <v>1287126948.205779</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07390492691524138</v>
+        <v>0.1083398735180909</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03221478769390304</v>
+        <v>0.03409313238099852</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2908483092.907971</v>
+        <v>2590911541.663604</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1424795475103305</v>
+        <v>0.1624517842064424</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0191974785787058</v>
+        <v>0.01979595485500237</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2600315603.968707</v>
+        <v>2404514727.870175</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08677133115256097</v>
+        <v>0.07143951179861888</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02745496749088656</v>
+        <v>0.03588193706709415</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1710684816.748076</v>
+        <v>1653435204.59337</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1000403674742835</v>
+        <v>0.115680134049405</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0268887215050348</v>
+        <v>0.02684737810463613</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1554266578.02406</v>
+        <v>1920478699.407572</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1366447193368468</v>
+        <v>0.1608223198664231</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02234052820668149</v>
+        <v>0.03252448181149646</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1584557777.270237</v>
+        <v>1410558208.798259</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1336850435530617</v>
+        <v>0.1463946132874517</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03974699755623773</v>
+        <v>0.05316932685364047</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1766330381.014876</v>
+        <v>2029288515.108593</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1230932479414702</v>
+        <v>0.100230400553131</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04606186605272077</v>
+        <v>0.03004659013444655</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2827043219.423083</v>
+        <v>3695407685.037479</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1096316928081908</v>
+        <v>0.1268642678724461</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03578827738008501</v>
+        <v>0.03635268586783349</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2566807036.763948</v>
+        <v>2995085800.807696</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1521088548649224</v>
+        <v>0.1307170354584537</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01916048439176957</v>
+        <v>0.01995392486109923</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1861417457.464117</v>
+        <v>2301896350.402296</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09134979719815112</v>
+        <v>0.07263735589777359</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03527700600210113</v>
+        <v>0.03367768002991819</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2524937447.129833</v>
+        <v>2446602160.167855</v>
       </c>
       <c r="F45" t="n">
-        <v>0.16545291117501</v>
+        <v>0.1198974887837384</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0458569908288129</v>
+        <v>0.05075717769392284</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3508742925.451163</v>
+        <v>4943690552.146692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1218248814410427</v>
+        <v>0.1448667108049009</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04990364099609111</v>
+        <v>0.04946924322949054</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4486352005.26351</v>
+        <v>3489850844.727682</v>
       </c>
       <c r="F47" t="n">
-        <v>0.156733506092802</v>
+        <v>0.1891203105075438</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05002843332933169</v>
+        <v>0.04438723970834422</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3362039608.999474</v>
+        <v>3445164048.870177</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09866397612104272</v>
+        <v>0.1028313319270228</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02635020254063208</v>
+        <v>0.03604740606719568</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1751705339.375215</v>
+        <v>1356768145.408871</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1698845503363762</v>
+        <v>0.1598746682806648</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03311439612653917</v>
+        <v>0.03107357934788573</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2861329798.734579</v>
+        <v>2899818348.049233</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1317742132896773</v>
+        <v>0.1209147762038385</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04384320541544347</v>
+        <v>0.04440022995674742</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1076828672.752562</v>
+        <v>1078134945.060871</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1958134811223153</v>
+        <v>0.1206889410043408</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04422714194593835</v>
+        <v>0.04586243600923536</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5054181084.467164</v>
+        <v>4543493618.31406</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09829793688901817</v>
+        <v>0.1244022473941717</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03792252165721479</v>
+        <v>0.06138148740019797</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2815957448.469367</v>
+        <v>3700316437.490861</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1343337727639621</v>
+        <v>0.1727843493701453</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02936525610986108</v>
+        <v>0.03423661356950179</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3389938619.830294</v>
+        <v>4052349811.260481</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1155553444617732</v>
+        <v>0.1458665494304932</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03707486626534635</v>
+        <v>0.03889834407251262</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4370724061.450495</v>
+        <v>3109298554.397035</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1901960722625266</v>
+        <v>0.1975012768196157</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03127298208525334</v>
+        <v>0.03153586575575673</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1262118188.275896</v>
+        <v>1407338400.594704</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1118876213481659</v>
+        <v>0.1285952032352686</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0548733453636904</v>
+        <v>0.05818717215167897</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3308147128.015609</v>
+        <v>3541217121.865323</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1680112361022867</v>
+        <v>0.1675783937542766</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02493501740939564</v>
+        <v>0.02470307054387492</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1518131197.469721</v>
+        <v>1527022362.816582</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1542136368234243</v>
+        <v>0.1915689197741367</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02505292222705215</v>
+        <v>0.0379519627575539</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4369292917.737169</v>
+        <v>4380405428.586802</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1026120846737368</v>
+        <v>0.09610250226218731</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04875171856693387</v>
+        <v>0.04645759030199731</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2737722834.263223</v>
+        <v>3113381296.170491</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1395531202787326</v>
+        <v>0.2061848933796695</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02952425900335632</v>
+        <v>0.0220485920565899</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3095766875.177408</v>
+        <v>2852387611.985147</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1783881722822705</v>
+        <v>0.1326697618396956</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02718999592324907</v>
+        <v>0.02717205799232826</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1754342657.611047</v>
+        <v>1605276478.332093</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1496886243583598</v>
+        <v>0.1375917077146828</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03544843515502156</v>
+        <v>0.03100515552695438</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3598533732.315781</v>
+        <v>4122981554.001849</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08330454534289777</v>
+        <v>0.06686080598675234</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03849247779044394</v>
+        <v>0.02947080188851083</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4445707450.829438</v>
+        <v>4348460506.995014</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1721894338754865</v>
+        <v>0.177875967537686</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02832410504155692</v>
+        <v>0.02446950712346637</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3788745352.535161</v>
+        <v>4657977935.558061</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1248195520765598</v>
+        <v>0.1490391201334686</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02869662848851421</v>
+        <v>0.02185629841585906</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4449029060.585475</v>
+        <v>4277035333.577496</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1133063401031052</v>
+        <v>0.1238720347527273</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04014722419600984</v>
+        <v>0.04695072920731595</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3442086365.780604</v>
+        <v>2329592926.495328</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09050265840662315</v>
+        <v>0.08792335055596817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03565832172465416</v>
+        <v>0.04716434723199451</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3951366573.532514</v>
+        <v>4099521937.781364</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1260493239742677</v>
+        <v>0.113629032655668</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03346699523655025</v>
+        <v>0.0507852887605367</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1879121201.334934</v>
+        <v>2240694699.37864</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1791717530512775</v>
+        <v>0.1556397821369387</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0374627645036209</v>
+        <v>0.05748344640233748</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2899401307.716402</v>
+        <v>2932347680.056131</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0684967826587104</v>
+        <v>0.07785263651524402</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03722935526432421</v>
+        <v>0.03613836149675922</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5422890185.422688</v>
+        <v>5516635321.744141</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1701105805229674</v>
+        <v>0.1783072510168232</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02270138662811716</v>
+        <v>0.0309738285220572</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2278061899.51451</v>
+        <v>1468295165.005455</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07608439233415902</v>
+        <v>0.06931643046688653</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04708953822052816</v>
+        <v>0.04000273882868209</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3057072740.124882</v>
+        <v>3413462006.879858</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09936237102109576</v>
+        <v>0.1062061542823774</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03928051806914652</v>
+        <v>0.04223179194151522</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3110411063.282591</v>
+        <v>3295691713.361865</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1505175619277682</v>
+        <v>0.1595738494759563</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0322183654974362</v>
+        <v>0.02874147336250878</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1821576018.191776</v>
+        <v>1567513294.687587</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1554407841923772</v>
+        <v>0.1226490557450789</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03491087242960396</v>
+        <v>0.02701878480760735</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5136758441.226639</v>
+        <v>4760196027.766877</v>
       </c>
       <c r="F76" t="n">
-        <v>0.122731352839048</v>
+        <v>0.1188599884131987</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02533441572297105</v>
+        <v>0.03184375571864956</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1859592798.062827</v>
+        <v>1470585737.115978</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1704807977052784</v>
+        <v>0.1850637989102015</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0243042575533677</v>
+        <v>0.02820313361266829</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3965682688.277054</v>
+        <v>3954015421.046951</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08877426091177251</v>
+        <v>0.1270774173441105</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0445051396812482</v>
+        <v>0.05506008365117111</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1811834464.799252</v>
+        <v>1572997609.359591</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1344278026022097</v>
+        <v>0.1262367619458095</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03403269377727559</v>
+        <v>0.04029945199764409</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4834488778.304658</v>
+        <v>3915755846.801985</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06813051322872569</v>
+        <v>0.06929056453580677</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03166182692653036</v>
+        <v>0.02366062155959281</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5183185150.216079</v>
+        <v>4835913549.766072</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08808282003674539</v>
+        <v>0.1036858356138025</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02358638044513589</v>
+        <v>0.0300248080514279</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4883278403.441045</v>
+        <v>5566523036.211581</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1378316089781993</v>
+        <v>0.1877773794745196</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02916281058167017</v>
+        <v>0.02666346622806089</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2119023983.950744</v>
+        <v>1702714693.697482</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1554607523510843</v>
+        <v>0.1303602078313787</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03221375950389251</v>
+        <v>0.04349863773495143</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1668324349.848731</v>
+        <v>1828069521.221434</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0987838053420198</v>
+        <v>0.1119804952783379</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04275366405157696</v>
+        <v>0.03861760749554208</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3641342980.538859</v>
+        <v>2512650875.431152</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1663098403481293</v>
+        <v>0.1214969681200779</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04031628723402422</v>
+        <v>0.04740143307047076</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2355192189.053741</v>
+        <v>2766677336.668012</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1708144449916221</v>
+        <v>0.1631767154017163</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02553946206014729</v>
+        <v>0.02002128048267109</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>977032520.3543674</v>
+        <v>1483564608.815222</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1332925254650093</v>
+        <v>0.1174514401681332</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03234209122086357</v>
+        <v>0.04097873564020056</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3696650707.790153</v>
+        <v>2866348103.667579</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1110182028126262</v>
+        <v>0.1594496450388178</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03172374077286172</v>
+        <v>0.03424297785674217</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3195887899.626518</v>
+        <v>3143755360.087327</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1203587904081271</v>
+        <v>0.1375379960027312</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04064220676674447</v>
+        <v>0.0333620131217485</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1690519875.822012</v>
+        <v>1534576319.807495</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1351095678775303</v>
+        <v>0.1015490249632269</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04416532622419734</v>
+        <v>0.05194326899366743</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1656408107.002447</v>
+        <v>1825624435.551581</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1778567246683938</v>
+        <v>0.1514760113932811</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05652690417454586</v>
+        <v>0.04679189655360063</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2043040343.859636</v>
+        <v>2113630162.14043</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1095880211794773</v>
+        <v>0.09240859279688529</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03897443360925709</v>
+        <v>0.04019826460797853</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4893190958.326981</v>
+        <v>3439020266.6888</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1113730622556636</v>
+        <v>0.1242251485676444</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03607098262028618</v>
+        <v>0.04219720721519633</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1986668156.876729</v>
+        <v>1770278088.042885</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1318569168425585</v>
+        <v>0.1643122359758378</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03121186652805606</v>
+        <v>0.03141470871287447</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2451711282.278423</v>
+        <v>2194376787.072673</v>
       </c>
       <c r="F95" t="n">
-        <v>0.125384895087745</v>
+        <v>0.1168272479674735</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0490422133070976</v>
+        <v>0.05284733693450697</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1895951375.525764</v>
+        <v>1472513044.05177</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1208320466354263</v>
+        <v>0.1071014247549414</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04033217556370342</v>
+        <v>0.0355574017548717</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5025104204.232235</v>
+        <v>4072666392.989388</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1224714581536866</v>
+        <v>0.1409311445673195</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0186332683593356</v>
+        <v>0.02427183286299276</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3459634261.891214</v>
+        <v>2879621694.686866</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1245452414457712</v>
+        <v>0.09515266739165398</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02793667739542021</v>
+        <v>0.0303869273180385</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2110871977.00313</v>
+        <v>3243348313.258735</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09159009577365163</v>
+        <v>0.1251471936486339</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02793221223042354</v>
+        <v>0.0322146640334243</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3023439226.646037</v>
+        <v>3647321839.224184</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1772483694336068</v>
+        <v>0.1124436824604825</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02502141566702739</v>
+        <v>0.02752414901382202</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2289147751.035597</v>
+        <v>2172934878.59412</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2088484289373174</v>
+        <v>0.1535677279227178</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03574364747151894</v>
+        <v>0.04115808797371247</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_239.xlsx
+++ b/output/fit_clients/fit_round_239.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2191115102.915436</v>
+        <v>2051265286.732296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07855417297230709</v>
+        <v>0.09848606155088063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04321446831371262</v>
+        <v>0.04275874018679655</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1826032859.281917</v>
+        <v>1871480257.365646</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1772884904721237</v>
+        <v>0.1626934289190484</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03936944495780816</v>
+        <v>0.04165711839946225</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4007791870.845104</v>
+        <v>4093497483.444628</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558565106444967</v>
+        <v>0.1104530190273203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0234785707292608</v>
+        <v>0.02794887100802435</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>129</v>
+      </c>
+      <c r="J4" t="n">
+        <v>239</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2775125941.654504</v>
+        <v>3507142698.172837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1020226250391173</v>
+        <v>0.1081733450867899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04257519050926097</v>
+        <v>0.03576209215151155</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>98</v>
+      </c>
+      <c r="J5" t="n">
+        <v>238</v>
+      </c>
+      <c r="K5" t="n">
+        <v>98.03863640801548</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2514548851.907701</v>
+        <v>1827230202.011549</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1373633622238967</v>
+        <v>0.1427697735395758</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04243369483089867</v>
+        <v>0.03829685613674182</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2886984554.911131</v>
+        <v>2808378155.577188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06439597834753347</v>
+        <v>0.07732679284421834</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04965123746442381</v>
+        <v>0.02999508677024128</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3595994547.000234</v>
+        <v>2967637124.616104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2172303419036951</v>
+        <v>0.2002106329168515</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02776669642208889</v>
+        <v>0.02669279965635241</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1710967146.277261</v>
+        <v>1475079750.627384</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1937074396966069</v>
+        <v>0.1720327714214087</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02994935105907287</v>
+        <v>0.02338642733775385</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4857518518.478586</v>
+        <v>4169497876.356635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1452833057943693</v>
+        <v>0.1910842449283164</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0362440212247338</v>
+        <v>0.05349724293861168</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>218</v>
+      </c>
+      <c r="J10" t="n">
+        <v>239</v>
+      </c>
+      <c r="K10" t="n">
+        <v>112.406375034032</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4022705917.665278</v>
+        <v>3915708797.817967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1842985202058079</v>
+        <v>0.1726253710326743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0336797546372068</v>
+        <v>0.04508141734527162</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>99</v>
+      </c>
+      <c r="J11" t="n">
+        <v>239</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2285711094.780926</v>
+        <v>2171999065.341191</v>
       </c>
       <c r="F12" t="n">
-        <v>0.140279341713875</v>
+        <v>0.1493557560835695</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03861078606012975</v>
+        <v>0.05152193297907318</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4392464179.431688</v>
+        <v>4538763928.933925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07788696160628394</v>
+        <v>0.06150819451764038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02733332074583689</v>
+        <v>0.01980498030642708</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>120</v>
+      </c>
+      <c r="J13" t="n">
+        <v>239</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3844908157.35509</v>
+        <v>3607733064.767579</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1547566508337114</v>
+        <v>0.1494992054968949</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02959081244065216</v>
+        <v>0.03104331112648176</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>239</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1327596461.995891</v>
+        <v>1785778407.80108</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08101797406613254</v>
+        <v>0.09740373209858008</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04827521961165882</v>
+        <v>0.04652878043672017</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2738993151.001792</v>
+        <v>2734063937.508309</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1098012844564543</v>
+        <v>0.1103159153920876</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05079507567564584</v>
+        <v>0.04500707844327671</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3427816062.711177</v>
+        <v>3598026084.469474</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1487767116048804</v>
+        <v>0.117617945125345</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03867456545504366</v>
+        <v>0.04027018609785768</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>115</v>
+      </c>
+      <c r="J17" t="n">
+        <v>237</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3796858137.277827</v>
+        <v>2863081338.916937</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1811190738369159</v>
+        <v>0.146682715634456</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02948034817741159</v>
+        <v>0.02355477972760706</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>907599064.4157329</v>
+        <v>903595006.5375407</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1649488336867484</v>
+        <v>0.1769143506651681</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02225638975671314</v>
+        <v>0.02529702847768659</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1957758564.693031</v>
+        <v>2514751020.748952</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1402822323353494</v>
+        <v>0.1170797411986135</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02097428907242751</v>
+        <v>0.0233773142831512</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1698760583.705362</v>
+        <v>1995984362.499044</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0749742832466629</v>
+        <v>0.08055276787403887</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04447716590902408</v>
+        <v>0.03018437029817351</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3563458024.085937</v>
+        <v>3745793550.464079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1219722834304665</v>
+        <v>0.1043562407099903</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04464626269228233</v>
+        <v>0.04935991837647156</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>61</v>
+      </c>
+      <c r="J22" t="n">
+        <v>239</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1419448100.484319</v>
+        <v>1172945824.896805</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1826255377528395</v>
+        <v>0.1285744014999448</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0511247616386761</v>
+        <v>0.0350743083591396</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2983720834.840351</v>
+        <v>3376707937.475058</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09323808864362053</v>
+        <v>0.09961011570613852</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02945219612748822</v>
+        <v>0.02996433892453288</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="n">
+        <v>74.06671237149415</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1410341091.480153</v>
+        <v>1027900820.872524</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07682420694586391</v>
+        <v>0.07703682635997292</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02634538859544717</v>
+        <v>0.02188334444056183</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>880674713.4470409</v>
+        <v>1129698158.059005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1015398574197491</v>
+        <v>0.1124203110521372</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03465288519254365</v>
+        <v>0.02570825994415267</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3736709822.262701</v>
+        <v>3244297332.634868</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1349760548468551</v>
+        <v>0.1345723982762417</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02427148790428072</v>
+        <v>0.02055844143476261</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>97</v>
+      </c>
+      <c r="J27" t="n">
+        <v>238</v>
+      </c>
+      <c r="K27" t="n">
+        <v>63.78274387683791</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3564284595.671554</v>
+        <v>2714308684.723042</v>
       </c>
       <c r="F28" t="n">
-        <v>0.101170547427031</v>
+        <v>0.1090526160291162</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04083198380330206</v>
+        <v>0.03194785627885712</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" t="n">
+        <v>237</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5129878754.203628</v>
+        <v>3916210355.596212</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1175542958091762</v>
+        <v>0.1298885278828757</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0365040276741582</v>
+        <v>0.03737816843042196</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>228</v>
+      </c>
+      <c r="J29" t="n">
+        <v>239</v>
+      </c>
+      <c r="K29" t="n">
+        <v>115.3402043210981</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2097438387.474844</v>
+        <v>2290027829.748516</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1117648484773815</v>
+        <v>0.1069250876616966</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02941971715109377</v>
+        <v>0.02923716099425048</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1271786937.285243</v>
+        <v>1197940917.183123</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08966710947632853</v>
+        <v>0.09348231121057583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04587183959620137</v>
+        <v>0.04300412924071361</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1383680334.570123</v>
+        <v>1417172492.686343</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09575717283255317</v>
+        <v>0.07748828857592806</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0262421884401249</v>
+        <v>0.03460369474476611</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2146504606.460161</v>
+        <v>2745805022.476651</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1987239533349979</v>
+        <v>0.1533313568597055</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05997209658020808</v>
+        <v>0.04293110345317722</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1254702933.657882</v>
+        <v>1359874216.386842</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1091750162385337</v>
+        <v>0.07766464079807303</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02699169041312391</v>
+        <v>0.02053785961099619</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1287126948.205779</v>
+        <v>1160662096.51528</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1083398735180909</v>
+        <v>0.09469088915052239</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03409313238099852</v>
+        <v>0.04003241112864352</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2590911541.663604</v>
+        <v>3236920119.392053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1624517842064424</v>
+        <v>0.1505213247557423</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01979595485500237</v>
+        <v>0.02131672877237949</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2404514727.870175</v>
+        <v>1855007580.444701</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07143951179861888</v>
+        <v>0.07749392040685422</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03588193706709415</v>
+        <v>0.03733924502329222</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1653435204.59337</v>
+        <v>1974508159.213082</v>
       </c>
       <c r="F38" t="n">
-        <v>0.115680134049405</v>
+        <v>0.09727881298682022</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02684737810463613</v>
+        <v>0.02744097188110663</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1920478699.407572</v>
+        <v>1645113867.190068</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1608223198664231</v>
+        <v>0.1198136760067847</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03252448181149646</v>
+        <v>0.02332471886657443</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1410558208.798259</v>
+        <v>1354393926.619981</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1463946132874517</v>
+        <v>0.1014952218304072</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05316932685364047</v>
+        <v>0.05561654570340308</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2029288515.108593</v>
+        <v>1882638759.840722</v>
       </c>
       <c r="F41" t="n">
-        <v>0.100230400553131</v>
+        <v>0.1149550572031731</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03004659013444655</v>
+        <v>0.03571769504652967</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3695407685.037479</v>
+        <v>2629211272.982205</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1268642678724461</v>
+        <v>0.1020787951144449</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03635268586783349</v>
+        <v>0.03041899385055611</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>98</v>
+      </c>
+      <c r="J42" t="n">
+        <v>237</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2995085800.807696</v>
+        <v>2633868317.278469</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1307170354584537</v>
+        <v>0.1339834959787503</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01995392486109923</v>
+        <v>0.02038972260265818</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2301896350.402296</v>
+        <v>1717824659.13284</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07263735589777359</v>
+        <v>0.0811741394264321</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03367768002991819</v>
+        <v>0.03532328345789181</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2446602160.167855</v>
+        <v>2226987112.15382</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1198974887837384</v>
+        <v>0.1531241495993611</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05075717769392284</v>
+        <v>0.03552655122989416</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4943690552.146692</v>
+        <v>4881154815.0779</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1448667108049009</v>
+        <v>0.138721640698524</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04946924322949054</v>
+        <v>0.04273887741462922</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>137</v>
+      </c>
+      <c r="J46" t="n">
+        <v>239</v>
+      </c>
+      <c r="K46" t="n">
+        <v>108.2720323512825</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3489850844.727682</v>
+        <v>3728463732.091586</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1891203105075438</v>
+        <v>0.1323259340721347</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04438723970834422</v>
+        <v>0.04536498773471762</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>107</v>
+      </c>
+      <c r="J47" t="n">
+        <v>238</v>
+      </c>
+      <c r="K47" t="n">
+        <v>79.15820574532644</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3445164048.870177</v>
+        <v>4470960396.460803</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1028313319270228</v>
+        <v>0.07518036583472429</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03604740606719568</v>
+        <v>0.03248584850800523</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>118</v>
+      </c>
+      <c r="J48" t="n">
+        <v>239</v>
+      </c>
+      <c r="K48" t="n">
+        <v>111.2006547237518</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1356768145.408871</v>
+        <v>1762697941.337992</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1598746682806648</v>
+        <v>0.1452008214525763</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03107357934788573</v>
+        <v>0.02850390525014359</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2899818348.049233</v>
+        <v>3222961365.767423</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1209147762038385</v>
+        <v>0.1451404736298149</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04440022995674742</v>
+        <v>0.05279044287753267</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>78</v>
+      </c>
+      <c r="J50" t="n">
+        <v>237</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1078134945.060871</v>
+        <v>1384525900.205108</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1206889410043408</v>
+        <v>0.1201205805416966</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04586243600923536</v>
+        <v>0.04761331991683558</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4543493618.31406</v>
+        <v>4333921213.699781</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1244022473941717</v>
+        <v>0.08960277825597165</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06138148740019797</v>
+        <v>0.04438528597037905</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>156</v>
+      </c>
+      <c r="J52" t="n">
+        <v>238</v>
+      </c>
+      <c r="K52" t="n">
+        <v>104.2925070948559</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3700316437.490861</v>
+        <v>3372097577.777936</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1727843493701453</v>
+        <v>0.1786579099161412</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03423661356950179</v>
+        <v>0.02937841590060443</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4052349811.260481</v>
+        <v>4548313201.347837</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1458665494304932</v>
+        <v>0.1326252832580768</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03889834407251262</v>
+        <v>0.04065105303279232</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>127</v>
+      </c>
+      <c r="J54" t="n">
+        <v>238</v>
+      </c>
+      <c r="K54" t="n">
+        <v>106.6210404858532</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3109298554.397035</v>
+        <v>3876400490.034688</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1975012768196157</v>
+        <v>0.1814220564711597</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03153586575575673</v>
+        <v>0.02270962452072027</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>107</v>
+      </c>
+      <c r="J55" t="n">
+        <v>238</v>
+      </c>
+      <c r="K55" t="n">
+        <v>102.7633541514227</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1407338400.594704</v>
+        <v>1661223369.070271</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1285952032352686</v>
+        <v>0.1239987471308337</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05818717215167897</v>
+        <v>0.05172297800620639</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3541217121.865323</v>
+        <v>3962230602.790608</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1675783937542766</v>
+        <v>0.1380595985723783</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02470307054387492</v>
+        <v>0.02026444287690776</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>94</v>
+      </c>
+      <c r="J57" t="n">
+        <v>238</v>
+      </c>
+      <c r="K57" t="n">
+        <v>106.1681420442863</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1527022362.816582</v>
+        <v>1726906271.052099</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1915689197741367</v>
+        <v>0.1808944300421034</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0379519627575539</v>
+        <v>0.03473786733701507</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4380405428.586802</v>
+        <v>3669374048.290199</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09610250226218731</v>
+        <v>0.1151453674916459</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04645759030199731</v>
+        <v>0.03842597446071958</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>115</v>
+      </c>
+      <c r="J59" t="n">
+        <v>239</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3113381296.170491</v>
+        <v>2674374224.091966</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2061848933796695</v>
+        <v>0.1895930707848471</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0220485920565899</v>
+        <v>0.02077847594329123</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2852387611.985147</v>
+        <v>2486649406.40568</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1326697618396956</v>
+        <v>0.1517695572986873</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02717205799232826</v>
+        <v>0.03012546658196447</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1605276478.332093</v>
+        <v>1807612617.759474</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1375917077146828</v>
+        <v>0.1744205700614604</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03100515552695438</v>
+        <v>0.03209246027630491</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4122981554.001849</v>
+        <v>4596794898.85456</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06686080598675234</v>
+        <v>0.1041550111688169</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02947080188851083</v>
+        <v>0.04078615004286434</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>116</v>
+      </c>
+      <c r="J63" t="n">
+        <v>239</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4348460506.995014</v>
+        <v>5434353576.470623</v>
       </c>
       <c r="F64" t="n">
-        <v>0.177875967537686</v>
+        <v>0.1406586192150666</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02446950712346637</v>
+        <v>0.03304495263915642</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>118</v>
+      </c>
+      <c r="J64" t="n">
+        <v>238</v>
+      </c>
+      <c r="K64" t="n">
+        <v>101.9603789532603</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4657977935.558061</v>
+        <v>5075704202.271201</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1490391201334686</v>
+        <v>0.1545515630596324</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02185629841585906</v>
+        <v>0.03191548766427075</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>191</v>
+      </c>
+      <c r="J65" t="n">
+        <v>239</v>
+      </c>
+      <c r="K65" t="n">
+        <v>107.9607466322731</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4277035333.577496</v>
+        <v>4838003080.908923</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1238720347527273</v>
+        <v>0.1138158403841121</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04695072920731595</v>
+        <v>0.03457655687914595</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>118</v>
+      </c>
+      <c r="J66" t="n">
+        <v>238</v>
+      </c>
+      <c r="K66" t="n">
+        <v>95.5055642356152</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2329592926.495328</v>
+        <v>2720899476.972929</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08792335055596817</v>
+        <v>0.09869116819347445</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04716434723199451</v>
+        <v>0.03628502919399767</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4099521937.781364</v>
+        <v>3872497739.809604</v>
       </c>
       <c r="F68" t="n">
-        <v>0.113629032655668</v>
+        <v>0.1528069909556873</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0507852887605367</v>
+        <v>0.03414271554009629</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>121</v>
+      </c>
+      <c r="J68" t="n">
+        <v>238</v>
+      </c>
+      <c r="K68" t="n">
+        <v>104.232896015113</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2240694699.37864</v>
+        <v>2032264465.777248</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1556397821369387</v>
+        <v>0.1289453295500193</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05748344640233748</v>
+        <v>0.04396148981328944</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2932347680.056131</v>
+        <v>3414918373.762212</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07785263651524402</v>
+        <v>0.06946644942697699</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03613836149675922</v>
+        <v>0.0453873080064936</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>37</v>
+      </c>
+      <c r="J70" t="n">
+        <v>234</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5516635321.744141</v>
+        <v>5660074029.746021</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1783072510168232</v>
+        <v>0.1453107955632095</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0309738285220572</v>
+        <v>0.03105211340864372</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>180</v>
+      </c>
+      <c r="J71" t="n">
+        <v>239</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1468295165.005455</v>
+        <v>1895345124.54442</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06931643046688653</v>
+        <v>0.1011662408724321</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04000273882868209</v>
+        <v>0.03510423511557487</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3413462006.879858</v>
+        <v>3342228693.951724</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1062061542823774</v>
+        <v>0.1026510565465892</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04223179194151522</v>
+        <v>0.04735440530656431</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3295691713.361865</v>
+        <v>3936809378.330767</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1595738494759563</v>
+        <v>0.1586022570597676</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02874147336250878</v>
+        <v>0.02695659422044566</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>68</v>
+      </c>
+      <c r="J74" t="n">
+        <v>239</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1567513294.687587</v>
+        <v>2258267215.018593</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1226490557450789</v>
+        <v>0.1367765557635191</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02701878480760735</v>
+        <v>0.03363999397208693</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4760196027.766877</v>
+        <v>5341928501.534047</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1188599884131987</v>
+        <v>0.1144944285109276</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03184375571864956</v>
+        <v>0.0273989251491029</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>111</v>
+      </c>
+      <c r="J76" t="n">
+        <v>238</v>
+      </c>
+      <c r="K76" t="n">
+        <v>94.04352778665418</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1470585737.115978</v>
+        <v>1408266619.64716</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1850637989102015</v>
+        <v>0.1451565031380022</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02820313361266829</v>
+        <v>0.02033797982108864</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3954015421.046951</v>
+        <v>4147552849.798574</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1270774173441105</v>
+        <v>0.08402330200791253</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05506008365117111</v>
+        <v>0.03667577658617078</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>118</v>
+      </c>
+      <c r="J78" t="n">
+        <v>239</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1572997609.359591</v>
+        <v>1256389599.843977</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1262367619458095</v>
+        <v>0.124767085674634</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04029945199764409</v>
+        <v>0.03463548612137611</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3915755846.801985</v>
+        <v>3785348318.760528</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06929056453580677</v>
+        <v>0.1020399383437425</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02366062155959281</v>
+        <v>0.03663789792300556</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>116</v>
+      </c>
+      <c r="J80" t="n">
+        <v>239</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4835913549.766072</v>
+        <v>3639442369.853652</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1036858356138025</v>
+        <v>0.09911817447380847</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0300248080514279</v>
+        <v>0.0271597693248156</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>110</v>
+      </c>
+      <c r="J81" t="n">
+        <v>238</v>
+      </c>
+      <c r="K81" t="n">
+        <v>80.08694639785703</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5566523036.211581</v>
+        <v>4263066380.691448</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1877773794745196</v>
+        <v>0.201373525896872</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02666346622806089</v>
+        <v>0.01912648133625768</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>180</v>
+      </c>
+      <c r="J82" t="n">
+        <v>239</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1702714693.697482</v>
+        <v>1877113871.670201</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1303602078313787</v>
+        <v>0.09876115200862552</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04349863773495143</v>
+        <v>0.03966471976956404</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1828069521.221434</v>
+        <v>2534002745.576879</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1119804952783379</v>
+        <v>0.1163988512043155</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03861760749554208</v>
+        <v>0.04431305003733643</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2512650875.431152</v>
+        <v>3616370097.938069</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1214969681200779</v>
+        <v>0.1636667840610642</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04740143307047076</v>
+        <v>0.05595540938357696</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>239</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2766677336.668012</v>
+        <v>1800212220.091149</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1631767154017163</v>
+        <v>0.1203187151172515</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02002128048267109</v>
+        <v>0.01949279226168412</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1483564608.815222</v>
+        <v>1069258365.12691</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1174514401681332</v>
+        <v>0.1393065751302386</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04097873564020056</v>
+        <v>0.03761843097542631</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2866348103.667579</v>
+        <v>3280630231.123684</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1594496450388178</v>
+        <v>0.1405352214959638</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03424297785674217</v>
+        <v>0.03586677623687778</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="n">
+        <v>80.85391515385362</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3143755360.087327</v>
+        <v>2934455639.181174</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1375379960027312</v>
+        <v>0.1276449688329992</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0333620131217485</v>
+        <v>0.0256599583480047</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1534576319.807495</v>
+        <v>1514298302.138778</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1015490249632269</v>
+        <v>0.1217674660337547</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05194326899366743</v>
+        <v>0.05346389120392135</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1825624435.551581</v>
+        <v>1901265367.773518</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1514760113932811</v>
+        <v>0.171425794230303</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04679189655360063</v>
+        <v>0.04359606429357697</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2113630162.14043</v>
+        <v>2262976550.076404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09240859279688529</v>
+        <v>0.104573395005939</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04019826460797853</v>
+        <v>0.03445022442349027</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3439020266.6888</v>
+        <v>3910090098.594881</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1242251485676444</v>
+        <v>0.1047128950685816</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04219720721519633</v>
+        <v>0.04401115876683818</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>106</v>
+      </c>
+      <c r="J93" t="n">
+        <v>238</v>
+      </c>
+      <c r="K93" t="n">
+        <v>102.6553470980043</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1770278088.042885</v>
+        <v>1575189407.987913</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1643122359758378</v>
+        <v>0.1681308130872568</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03141470871287447</v>
+        <v>0.03267210938156877</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2194376787.072673</v>
+        <v>2733757820.816017</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1168272479674735</v>
+        <v>0.1358467937720133</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05284733693450697</v>
+        <v>0.04572115929172035</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1472513044.05177</v>
+        <v>1528970047.540331</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1071014247549414</v>
+        <v>0.1268180165818943</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0355574017548717</v>
+        <v>0.04512992305383674</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4072666392.989388</v>
+        <v>5122166988.90671</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1409311445673195</v>
+        <v>0.1182249003534167</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02427183286299276</v>
+        <v>0.01881950325704964</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>115</v>
+      </c>
+      <c r="J97" t="n">
+        <v>239</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2879621694.686866</v>
+        <v>3620554739.578652</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09515266739165398</v>
+        <v>0.09176532916560771</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0303869273180385</v>
+        <v>0.02897665583460126</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>58</v>
+      </c>
+      <c r="J98" t="n">
+        <v>239</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3243348313.258735</v>
+        <v>2152389160.407754</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1251471936486339</v>
+        <v>0.1484666348572221</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0322146640334243</v>
+        <v>0.03179705738871696</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3647321839.224184</v>
+        <v>2903299714.966163</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1124436824604825</v>
+        <v>0.1207171367239104</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02752414901382202</v>
+        <v>0.02643722655778475</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" t="n">
+        <v>237</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2172934878.59412</v>
+        <v>3428994586.055754</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1535677279227178</v>
+        <v>0.1750231696418444</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04115808797371247</v>
+        <v>0.040214478405566</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
